--- a/data/trans_camb/P23_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_3_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>26,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>15,07</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12,57</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11,52</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 33,55</t>
+          <t>2,11; 64,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 8,13</t>
+          <t>-8,56; 14,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 7,68</t>
+          <t>-6,72; 23,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 4,23</t>
+          <t>-14,21; 14,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 14,25</t>
+          <t>-14,95; 13,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 3,94</t>
+          <t>-1,8; 34,28</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 42,86</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 11,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 24,68</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>557,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>85,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>167,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,14%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,33%</t>
+          <t>90,2%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>115,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>105,42%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 636,06</t>
+          <t>-76,83; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,08; 152,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 57,99</t>
+          <t>-81,15; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,41; 32,89</t>
+          <t>-62,92; 164,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 130,93</t>
+          <t>-65,17; 143,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 34,49</t>
+          <t>-16,29; 363,27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-11,43; 525,43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-50,24; 169,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; 363,49</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-8,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-5,37</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-5,95</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-5,13</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 3,99</t>
+          <t>-12,94; 5,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 6,67</t>
+          <t>-12,38; 6,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 7,47</t>
+          <t>-13,33; 5,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -0,15</t>
+          <t>-6,79; 12,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,82</t>
+          <t>-16,52; -0,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 1,52</t>
+          <t>-13,85; 3,21</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 5,74</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 0,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 0,44</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,63%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>-23,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,48%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>-36,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,92%</t>
+          <t>-23,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-3,25%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-27,45%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-23,68%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 26,9</t>
+          <t>-50,91; 34,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 43,63</t>
+          <t>-50,56; 45,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 42,51</t>
+          <t>-53,36; 42,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,78; -0,7</t>
+          <t>-25,04; 67,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 20,64</t>
+          <t>-60,83; -1,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 8,65</t>
+          <t>-48,76; 19,4</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-29,59; 31,16</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-47,56; 3,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-46,37; 2,87</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-4,19</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,55</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 2,21</t>
+          <t>-11,91; 5,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 1,19</t>
+          <t>-12,29; 5,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 2,3</t>
+          <t>-9,35; 8,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 2,5</t>
+          <t>-13,67; 3,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -0,26</t>
+          <t>-12,16; 4,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -1,41</t>
+          <t>-9,24; 9,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,44; 2,07</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; 2,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 6,46</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,05%</t>
+          <t>-20,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,43%</t>
+          <t>-20,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,08%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,88%</t>
+          <t>-23,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,42%</t>
+          <t>-17,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,6%</t>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-22,75%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-19,3%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-0,72%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,7; 18,14</t>
+          <t>-60,34; 41,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,35; 10,45</t>
+          <t>-63,33; 49,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 15,67</t>
+          <t>-47,83; 80,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,89; 15,46</t>
+          <t>-55,17; 21,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,82; -0,59</t>
+          <t>-47,79; 34,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,35; -7,59</t>
+          <t>-37,13; 57,34</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-47,62; 14,92</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-42,68; 21,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-31,98; 43,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 3,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 3,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -1,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -0,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-24,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 24,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 16,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 17,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,64; -7,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 9,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,69; -4,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-5,49</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,96</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 9,97</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 3,78</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 4,93</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 4,54</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-10,89; -0,2</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 6,27</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 4,68</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; -0,01</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 3,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-13,06%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-8,36%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-5,18%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-25,66%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-20,95%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-3,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-29,36; 75,5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-40,77; 29,15</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-37,67; 40,52</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-29,16; 24,7</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-45,08; -1,34</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-26,18; 31,64</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; 27,33</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-39,98; -0,04</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-23,5; 21,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
